--- a/biology/Zoologie/Hirondelle_à_gorge_blanche/Hirondelle_à_gorge_blanche.xlsx
+++ b/biology/Zoologie/Hirondelle_à_gorge_blanche/Hirondelle_à_gorge_blanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hirondelle_%C3%A0_gorge_blanche</t>
+          <t>Hirondelle_à_gorge_blanche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hirundo albigularis
 L'Hirondelle à gorge blanche (Hirundo albigularis) est une espèce de passereau de la famille des Hirundinidae. Son aire de répartition s'étend sur le Gabon, la République démocratique du Congo, l'Angola, la Namibie, le Botswana, la Zambie, le Zimbabwe, l'Afrique du Sud, le Lesotho, le Swaziland, le Mozambique, le Malawi et la Tanzanie. Elle rare en République du Congo.
